--- a/tokenizing-test-cases.xlsx
+++ b/tokenizing-test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\FinalProjV1\Group33_Version01\tokenizing_module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\Group33_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C055C4-C940-4BC7-8C11-FBB2E556F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CBE036-BCCC-47E7-BD49-FFE93478B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tokenizing-module" sheetId="3" r:id="rId1"/>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
       <text>
         <r>
           <rPr>
@@ -387,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
       <text>
         <r>
           <rPr>
@@ -629,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
       <text>
         <r>
           <rPr>
@@ -724,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Comments</t>
   </si>
@@ -851,9 +851,6 @@
     <t>+ Ensure normal behavior with space as a delimiter</t>
   </si>
   <si>
-    <t>Separating the phrase by the space. Prints "Word #1 is 'Hello'", "Word #2 is 'World'"</t>
-  </si>
-  <si>
     <t>Test tokenizing with an empty string</t>
   </si>
   <si>
@@ -870,10 +867,6 @@
   </si>
   <si>
     <t>string: "Hello CPR 101"</t>
-  </si>
-  <si>
-    <t>Separating the phrase by the spaces. Prints "Word #1 is 'Hello'
-Word #2 is 'CPR' Word #3 is '101'"</t>
   </si>
   <si>
     <t>Validate tokenization of a typical pharse with single spaces</t>
@@ -899,29 +892,127 @@
     <t>Recommended fix: Update strtok to use " ,;" as delimiters for mixed characters.</t>
   </si>
   <si>
-    <t>Separating the phrase by the spaces. Prints "Word #1 is '1'
+    <t>Validate tokenization with numerics with single spaces</t>
+  </si>
+  <si>
+    <t>Validate tokenization with mixed of words and numerics with single spaces</t>
+  </si>
+  <si>
+    <t>string: "1 2 3 4 5"</t>
+  </si>
+  <si>
+    <t>string: "Version 1 Version 2"</t>
+  </si>
+  <si>
+    <t>[empty input]</t>
+  </si>
+  <si>
+    <t>Prints the three words without the delimeter - comma, semicolon</t>
+  </si>
+  <si>
+    <t>Separating the words by the space. Prints "Word #1 is 'Hello'", "Word #2 is 'World'"</t>
+  </si>
+  <si>
+    <t>Separating the words by the spaces. Prints "Word #1 is 'Hello'
+Word #2 is 'CPR' Word #3 is '101'"</t>
+  </si>
+  <si>
+    <t>Separating the words by the spaces. Prints "Word #1 is '1'
 Word #2 is '2' Word #3 is '3' Word #4 is '4' Word #5 is '5'"</t>
   </si>
   <si>
-    <t>Validate tokenization with numerics with single spaces</t>
-  </si>
-  <si>
-    <t>Separating the phrase by the spaces. Prints "Word #1 is 'Version' Word #2 is '1' Word #3 is 'Version' Word #4 is '2'"</t>
-  </si>
-  <si>
-    <t>Validate tokenization with mixed of words and numerics with single spaces</t>
-  </si>
-  <si>
-    <t>string: "1 2 3 4 5"</t>
-  </si>
-  <si>
-    <t>string: "Version 1 Version 2"</t>
-  </si>
-  <si>
-    <t>[empty input]</t>
-  </si>
-  <si>
-    <t>Prints the three words without the delimeter - comma, semicolon</t>
+    <t>Separating the words by the spaces. Prints "Word #1 is 'Version' Word #2 is '1' Word #3 is 'Version' Word #4 is '2'"</t>
+  </si>
+  <si>
+    <t>Michaela Cruz
+November 30, 2024</t>
+  </si>
+  <si>
+    <t>Validate tokenization of a single phrase</t>
+  </si>
+  <si>
+    <t>Validate tokenization of multiple phrases with commas</t>
+  </si>
+  <si>
+    <t>Validate tokenization with numeric phrases</t>
+  </si>
+  <si>
+    <t>Validate tokenization with mixed phrases (words and numbers)</t>
+  </si>
+  <si>
+    <t>Validate tokenization of phrases with special characters</t>
+  </si>
+  <si>
+    <t>Validate tokenization with mixed delimiters (spaces, commas, and semicolons)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>+ Ensure correct tokenization of a single phrase</t>
+  </si>
+  <si>
+    <t>+ Ensure correct tokenization of multiple phrases with commas</t>
+  </si>
+  <si>
+    <t>+ Ensure correct tokenization of numeric phrases</t>
+  </si>
+  <si>
+    <t>+ Ensure correct tokenization of mixed phrases (words and numbers)</t>
+  </si>
+  <si>
+    <t>+ Ensure correct handling of special characters in phrases</t>
+  </si>
+  <si>
+    <t>- Ensure tokenization handles mixed delimiters correctly</t>
+  </si>
+  <si>
+    <t>string: "1, 2, 3, 4, 5"</t>
+  </si>
+  <si>
+    <t>string: "Version 1, Version 2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	"No input entered. Please try again."</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'Version 1', Phrase #2 is 'Version 2'"</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is '1', Phrase #2 is '2', Phrase #3 is '3', Phrase #4 is '4', Phrase #5 is '5'"</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'Seneca College'"</t>
+  </si>
+  <si>
+    <t>string: "Hello, World, CPR"</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'Hello', Phrase #2 is 'World', Phrase #3 is 'CPR'"</t>
+  </si>
+  <si>
+    <t>string: "Hello! World!, CPR 101"</t>
+  </si>
+  <si>
+    <t>string: "CPR, 101; Final</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'Hello! World!', Phrase #2 is 'CPR 101'"</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'CPR', Phrase #2 is '101', Phrase #3 is 'Final'"</t>
+  </si>
+  <si>
+    <t>"Phrase #1 is 'Hello,', Phrase #2 is 'World;', Phrase #3 is 'C++'"</t>
+  </si>
+  <si>
+    <t>"Prompts to type a few phrases again."</t>
+  </si>
+  <si>
+    <t>Recommended fix: Add a check to handle empty input by prompting the user for a valid input.</t>
+  </si>
+  <si>
+    <t>Recommended fix: Update the delimiter in strtok to handle spaces, commas, and semicolons (strtok(phrases, " ,;")).</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1286,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,6 +1359,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1743,7 @@
     </row>
     <row r="4" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -1655,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
@@ -1665,16 +1762,16 @@
     </row>
     <row r="5" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
@@ -1684,16 +1781,16 @@
     </row>
     <row r="6" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9" t="s">
@@ -1703,16 +1800,16 @@
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
@@ -1722,179 +1819,276 @@
     </row>
     <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="4" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="G11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="F13" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="F14" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="F15" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="F16" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
+      <c r="F17" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
@@ -1932,11 +2126,29 @@
       <c r="E28" s="2"/>
       <c r="F28" s="9"/>
     </row>
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
